--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -11,20 +11,20 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId9"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="39">
   <si>
     <t>NAME</t>
   </si>
@@ -119,13 +119,28 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Jan-16</t>
-  </si>
-  <si>
-    <t>Feb-16</t>
-  </si>
-  <si>
-    <t>Mar-16</t>
+    <t>what if anaylsis</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Total revenue</t>
+  </si>
+  <si>
+    <t>Transport Cost</t>
+  </si>
+  <si>
+    <t>Item cost</t>
+  </si>
+  <si>
+    <t>Yotal cost</t>
+  </si>
+  <si>
+    <t>Profit</t>
   </si>
 </sst>
 </file>
@@ -141,12 +156,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -176,11 +215,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -188,11 +224,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -203,340 +248,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -630,6 +342,18 @@
         </horizontal>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -638,11 +362,15 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
+  <c:style val="47"/>
   <c:pivotSource>
     <c:name>[Book1.xlsx]Sheet7!PivotTable3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -679,7 +407,7 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1020,32 +748,35 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="145090432"/>
-        <c:axId val="145091968"/>
+        <c:overlap val="100"/>
+        <c:axId val="143115392"/>
+        <c:axId val="143116928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="145090432"/>
+        <c:axId val="143115392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145091968"/>
+        <c:crossAx val="143116928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145091968"/>
+        <c:axId val="143116928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145090432"/>
+        <c:crossAx val="143115392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1058,7 +789,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1068,16 +799,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1188,7 +919,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="BILLS">
   <location ref="D17:I25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -1313,7 +1044,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="L5:Q13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -1406,26 +1137,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table25" displayName="Table25" ref="A2:C10" totalsRowShown="0">
   <autoFilter ref="A2:C10"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="NAME" dataDxfId="45"/>
-    <tableColumn id="2" name="TYPE 1" dataDxfId="44"/>
-    <tableColumn id="3" name="SPEED" dataDxfId="43"/>
+    <tableColumn id="1" name="NAME" dataDxfId="6"/>
+    <tableColumn id="2" name="TYPE 1" dataDxfId="5"/>
+    <tableColumn id="3" name="SPEED" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:F7" totalsRowShown="0">
-  <autoFilter ref="A1:F7"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="BILLS"/>
-    <tableColumn id="2" name="Jan-16"/>
-    <tableColumn id="3" name="Feb-16"/>
-    <tableColumn id="4" name="Mar-16"/>
-    <tableColumn id="5" name="Total"/>
-    <tableColumn id="6" name="Percent"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1728,11 +1444,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
@@ -1872,108 +1588,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>58</v>
       </c>
     </row>
@@ -1982,7 +1698,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C10">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2008,148 +1724,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="2">
         <v>42370</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>42401</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>42430</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2">
-        <v>1200</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1200</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1200</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="B2" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E2" s="1">
         <v>3600</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>45.28</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>300</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>3200</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>300</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>900</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>11.32</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>250</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>350</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>450</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>1050</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>13.21</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>300</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>400</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>500</v>
       </c>
-      <c r="E5" s="2">
-        <v>1200</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="E5" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F5" s="1">
         <v>15.09</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>400</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>400</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>400</v>
       </c>
-      <c r="E6" s="2">
-        <v>1200</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="E6" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F6" s="1">
         <v>15.09</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>2450</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>2650</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>2850</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>7950</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F7">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>400</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2168,148 +1884,148 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="2">
         <v>42370</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>42401</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>42430</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2">
-        <v>1200</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1200</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1200</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="B2" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E2" s="1">
         <v>3600</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>45.28</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>300</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>3200</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>300</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>900</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>11.32</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>250</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>350</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>450</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>1050</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>13.21</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>300</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>400</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>500</v>
       </c>
-      <c r="E5" s="2">
-        <v>1200</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="E5" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F5" s="1">
         <v>15.09</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>400</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>400</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>400</v>
       </c>
-      <c r="E6" s="2">
-        <v>1200</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="E6" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F6" s="1">
         <v>15.09</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>2450</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>2650</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>2850</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>7950</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F7">
-    <cfRule type="cellIs" dxfId="41" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>400</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2318,7 +2034,7 @@
       <formula>10</formula>
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
       <formula>10</formula>
       <formula>15</formula>
     </cfRule>
@@ -2329,291 +2045,460 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="2">
         <v>42370</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>42401</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>42430</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2">
-        <v>1200</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1200</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1200</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="B2" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E2" s="1">
         <v>3600</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>45.28</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>300</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>3200</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>300</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>900</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>11.32</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>250</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>350</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>450</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>1050</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>13.21</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>300</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>400</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>500</v>
       </c>
-      <c r="E5" s="2">
-        <v>1200</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="E5" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F5" s="1">
         <v>15.09</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>400</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>400</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>400</v>
       </c>
-      <c r="E6" s="2">
-        <v>1200</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="E6" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F6" s="1">
         <v>15.09</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>2450</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>2650</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>2850</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>7950</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>100</v>
       </c>
     </row>
+  </sheetData>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F7">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISODD(F2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2">
+        <v>42370</v>
+      </c>
+      <c r="C1" s="2">
+        <v>42401</v>
+      </c>
+      <c r="D1" s="2">
+        <v>42430</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3600</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45.28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1">
+        <v>300</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3200</v>
+      </c>
+      <c r="D3" s="1">
+        <v>300</v>
+      </c>
+      <c r="E3" s="1">
+        <v>900</v>
+      </c>
+      <c r="F3" s="1">
+        <v>11.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1">
+        <v>250</v>
+      </c>
+      <c r="C4" s="1">
+        <v>350</v>
+      </c>
+      <c r="D4" s="1">
+        <v>450</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1050</v>
+      </c>
+      <c r="F4" s="1">
+        <v>13.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1">
+        <v>300</v>
+      </c>
+      <c r="C5" s="1">
+        <v>400</v>
+      </c>
+      <c r="D5" s="1">
+        <v>500</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F5" s="1">
+        <v>15.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1">
+        <v>400</v>
+      </c>
+      <c r="C6" s="1">
+        <v>400</v>
+      </c>
+      <c r="D6" s="1">
+        <v>400</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F6" s="1">
+        <v>15.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2450</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2650</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2850</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7950</v>
+      </c>
+      <c r="F7" s="1">
+        <v>100</v>
+      </c>
+    </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>42370</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>42401</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>42430</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2">
-        <v>1200</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1200</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1200</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="B12" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E12" s="1">
         <v>3600</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>45.28</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>300</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>3200</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>300</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>900</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>11.32</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>250</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>350</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>450</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>1050</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>13.21</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>300</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>400</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>500</v>
       </c>
-      <c r="E15" s="2">
-        <v>1200</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="E15" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F15" s="1">
         <v>15.09</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>400</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>400</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>400</v>
       </c>
-      <c r="E16" s="2">
-        <v>1200</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="E16" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F16" s="1">
         <v>15.09</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>2450</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>2650</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>2850</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>7950</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>100</v>
       </c>
     </row>
@@ -2640,348 +2525,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="A1:F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="3">
-        <v>42370</v>
-      </c>
-      <c r="C1" s="3">
-        <v>42401</v>
-      </c>
-      <c r="D1" s="3">
-        <v>42430</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1200</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1200</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1200</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3600</v>
-      </c>
-      <c r="F2" s="2">
-        <v>45.28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2">
-        <v>300</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3200</v>
-      </c>
-      <c r="D3" s="2">
-        <v>300</v>
-      </c>
-      <c r="E3" s="2">
-        <v>900</v>
-      </c>
-      <c r="F3" s="2">
-        <v>11.32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2">
-        <v>250</v>
-      </c>
-      <c r="C4" s="2">
-        <v>350</v>
-      </c>
-      <c r="D4" s="2">
-        <v>450</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1050</v>
-      </c>
-      <c r="F4" s="2">
-        <v>13.21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2">
-        <v>300</v>
-      </c>
-      <c r="C5" s="2">
-        <v>400</v>
-      </c>
-      <c r="D5" s="2">
-        <v>500</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1200</v>
-      </c>
-      <c r="F5" s="2">
-        <v>15.09</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2">
-        <v>400</v>
-      </c>
-      <c r="C6" s="2">
-        <v>400</v>
-      </c>
-      <c r="D6" s="2">
-        <v>400</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1200</v>
-      </c>
-      <c r="F6" s="2">
-        <v>15.09</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2450</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2650</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2850</v>
-      </c>
-      <c r="E7" s="2">
-        <v>7950</v>
-      </c>
-      <c r="F7" s="2">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="F1">
-    <cfRule type="iconSet" priority="2">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F7">
-    <cfRule type="expression" dxfId="4" priority="1">
-      <formula>ISODD(F2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <v>300</v>
-      </c>
-      <c r="C2">
-        <v>3200</v>
-      </c>
-      <c r="D2">
-        <v>300</v>
-      </c>
-      <c r="E2">
-        <v>900</v>
-      </c>
-      <c r="F2">
-        <v>11.32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3">
-        <v>250</v>
-      </c>
-      <c r="C3">
-        <v>350</v>
-      </c>
-      <c r="D3">
-        <v>450</v>
-      </c>
-      <c r="E3">
-        <v>1050</v>
-      </c>
-      <c r="F3">
-        <v>13.21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4">
-        <v>300</v>
-      </c>
-      <c r="C4">
-        <v>400</v>
-      </c>
-      <c r="D4">
-        <v>500</v>
-      </c>
-      <c r="E4">
-        <v>1200</v>
-      </c>
-      <c r="F4">
-        <v>15.09</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <v>400</v>
-      </c>
-      <c r="C5">
-        <v>400</v>
-      </c>
-      <c r="D5">
-        <v>400</v>
-      </c>
-      <c r="E5">
-        <v>1200</v>
-      </c>
-      <c r="F5">
-        <v>15.09</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>1200</v>
-      </c>
-      <c r="C6">
-        <v>1200</v>
-      </c>
-      <c r="D6">
-        <v>1200</v>
-      </c>
-      <c r="E6">
-        <v>3600</v>
-      </c>
-      <c r="F6">
-        <v>45.28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7">
-        <v>2450</v>
-      </c>
-      <c r="C7">
-        <v>2650</v>
-      </c>
-      <c r="D7">
-        <v>2850</v>
-      </c>
-      <c r="E7">
-        <v>7950</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
@@ -2996,128 +2550,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="2">
         <v>42370</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>42401</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>42430</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2">
-        <v>1200</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1200</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1200</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="B2" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E2" s="1">
         <v>3600</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>45.28</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>300</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>3200</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>300</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>900</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>11.32</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>250</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>350</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>450</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>1050</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>13.21</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>300</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>400</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>500</v>
       </c>
-      <c r="E5" s="2">
-        <v>1200</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="E5" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F5" s="1">
         <v>15.09</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>400</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>400</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>400</v>
       </c>
-      <c r="E6" s="2">
-        <v>1200</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="E6" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F6" s="1">
         <v>15.09</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="M6" t="s">
@@ -3137,171 +2691,171 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>2450</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>2650</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>2850</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>7950</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>100</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="3">
         <v>300</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <v>3200</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <v>300</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="3">
         <v>900</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="3">
         <v>11.32</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="3">
         <v>250</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <v>350</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <v>450</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="3">
         <v>1050</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="3">
         <v>13.21</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>500</v>
       </c>
-      <c r="P9" s="4">
-        <v>1200</v>
-      </c>
-      <c r="Q9" s="4">
+      <c r="P9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q9" s="3">
         <v>15.09</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="4">
-        <v>1200</v>
-      </c>
-      <c r="Q10" s="4">
+      <c r="P10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q10" s="3">
         <v>15.09</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="4">
-        <v>1200</v>
-      </c>
-      <c r="N11" s="4">
-        <v>1200</v>
-      </c>
-      <c r="O11" s="4">
-        <v>1200</v>
-      </c>
-      <c r="P11" s="4">
+      <c r="M11" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P11" s="3">
         <v>3600</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <v>45.28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>2450</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>2650</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <v>2850</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="3">
         <v>7950</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <v>4900</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <v>8200</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="3">
         <v>5700</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="3">
         <v>15900</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="3">
         <v>199.99</v>
       </c>
     </row>
     <row r="17" spans="4:9">
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="4:9">
-      <c r="D18" s="5" t="s">
-        <v>29</v>
+      <c r="D18" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E18" t="s">
         <v>28</v>
@@ -3320,142 +2874,142 @@
       </c>
     </row>
     <row r="19" spans="4:9">
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>300</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>3200</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>300</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>900</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>11.32</v>
       </c>
     </row>
     <row r="20" spans="4:9">
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>250</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>350</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>450</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>1050</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>13.21</v>
       </c>
     </row>
     <row r="21" spans="4:9">
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>500</v>
       </c>
-      <c r="H21" s="4">
-        <v>1200</v>
-      </c>
-      <c r="I21" s="4">
+      <c r="H21" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I21" s="3">
         <v>15.09</v>
       </c>
     </row>
     <row r="22" spans="4:9">
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="4">
-        <v>1200</v>
-      </c>
-      <c r="I22" s="4">
+      <c r="H22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I22" s="3">
         <v>15.09</v>
       </c>
     </row>
     <row r="23" spans="4:9">
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F23" s="4">
-        <v>1200</v>
-      </c>
-      <c r="G23" s="4">
-        <v>1200</v>
-      </c>
-      <c r="H23" s="4">
+      <c r="E23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H23" s="3">
         <v>3600</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>45.28</v>
       </c>
     </row>
     <row r="24" spans="4:9">
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>2450</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>2650</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>2850</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <v>7950</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="25" spans="4:9">
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>4900</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>8200</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <v>5700</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <v>15900</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="3">
         <v>199.99</v>
       </c>
     </row>
@@ -3472,4 +3026,93 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="8">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="9">
+        <f>C4*C3</f>
+        <v>8704</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="8">
+        <f>C5*10%</f>
+        <v>870.40000000000009</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="8">
+        <f>20*C4</f>
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="9">
+        <f>C6+C7</f>
+        <v>6310.4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="10">
+        <f>C5-C8</f>
+        <v>2393.6000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>